--- a/biology/Médecine/Cavité_tympanique/Cavité_tympanique.xlsx
+++ b/biology/Médecine/Cavité_tympanique/Cavité_tympanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_tympanique</t>
+          <t>Cavité_tympanique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cavité tympanique (ou caisse du tympan) est une petite cavité entre l'oreille externe et l'oreille interne, entourant les os de l'oreille moyenne.
 À l'intérieur se trouvent les osselets, trois petits os (enclume, marteau et étrier) qui transmettent les vibrations sonores du tympan à la fenêtre ovale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_tympanique</t>
+          <t>Cavité_tympanique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La cavité tympanique est délimitée par :
 La paroi latérale (ou paroi membraneuse ) face à l'oreille externe, elle est séparée du méat auditif externe par la membrane tympanique et une partie de l'anneau osseux dans lequel cette membrane s'insère. Cet anneau osseux est incomplet à sa partie supérieure, formant l'encoche de Rivinus, à proximité de laquelle se trouvent trois petites ouvertures : le iter chordæ posterius, la fissure pétro-tympanique, et le iter chordæ anterius.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_tympanique</t>
+          <t>Cavité_tympanique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La cavité tympanique est formé à partir de la première poche branchiale.
 </t>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_tympanique</t>
+          <t>Cavité_tympanique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Si elle est endommagée, la membrane tympanique peut être réparée lors d'une procédure appelée tympanoplastie.
 Si du liquide s'accumule dans l'oreille moyenne à la suite d'une infection ou pour toute autre raison, il peut être drainé en perforant la membrane tympanique avec une aiguille de gros calibre (paracentèse).
